--- a/biology/Botanique/Vaccinium_microcarpum/Vaccinium_microcarpum.xlsx
+++ b/biology/Botanique/Vaccinium_microcarpum/Vaccinium_microcarpum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Canneberge à petits fruits, Airelle à petit fruit
 Vaccinium microcarpum, de noms communs Canneberge à petits fruits ou Airelle à petit fruit, est une espèce de plantes à fleurs de la famille des Ericaceae et du genre Vaccinium.
@@ -514,12 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante vivace de 2 à 20 cm de hauteur, à rameaux filiformes, rampants. Les feuilles sont persistantes, coriaces, triangulaires-ovales, aiguës, tronquées ou échancrées à la base ; la face supérieure du limbe foliaire est luisante, la face inférieure grisâtre[1]. 
-Appareil reproducteur
-Les fleurs sont disposées par 1 à 4 à l'extrémité des rameaux ; les pédoncules sont glabres ; la corolle est formée de 4 lobes lancéolés, rose vif, réfléchis ; les filets des étamines sont velus, plus longs que les anthères (cornes comprises) à la floraison. Le fruit est une baie rouge sphérique, d'environ 8 mm de diamètre. La floraison se déroule de mai à juillet[1].
-Confusions possibles
-C'est une espèce très proche de Vaccinium oxycoccos L.; elle s'en distingue par son pédoncule fructifère glabre et ses étamines velues[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante vivace de 2 à 20 cm de hauteur, à rameaux filiformes, rampants. Les feuilles sont persistantes, coriaces, triangulaires-ovales, aiguës, tronquées ou échancrées à la base ; la face supérieure du limbe foliaire est luisante, la face inférieure grisâtre. 
 </t>
         </is>
       </c>
@@ -545,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La plante est chaméphyte[2]. Elle pousse sur les tapis de sphaignes au sein des tourbières bombées[1].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont disposées par 1 à 4 à l'extrémité des rameaux ; les pédoncules sont glabres ; la corolle est formée de 4 lobes lancéolés, rose vif, réfléchis ; les filets des étamines sont velus, plus longs que les anthères (cornes comprises) à la floraison. Le fruit est une baie rouge sphérique, d'environ 8 mm de diamètre. La floraison se déroule de mai à juillet.
 </t>
         </is>
       </c>
@@ -576,12 +595,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">La répartition de cette espèce reste mal connue, la plante étant souvent confondue avec V. occycoccos ; sa présence est confirmée dans le Massif central, le Jura et les Alpes[1],[3]. Elle est également présente en Asie du nord.
+          <t>Confusions possibles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce très proche de Vaccinium oxycoccos L.; elle s'en distingue par son pédoncule fructifère glabre et ses étamines velues.
 </t>
         </is>
       </c>
@@ -607,12 +632,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Menaces et conservation</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est en préoccupation mineure en France mais est menacée dans plusieurs régions françaises (elle est notamment classée en danger critique d'extinction (CR) en Bourgogne[4]. Les menaces pesant sur l'espèce sont, comme pour la plupart des espèces, la dégradation de ses milieux par eutrophisation ou assèchement (drainage...)[1].
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est chaméphyte. Elle pousse sur les tapis de sphaignes au sein des tourbières bombées.
 </t>
         </is>
       </c>
@@ -638,17 +665,85 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La répartition de cette espèce reste mal connue, la plante étant souvent confondue avec V. occycoccos ; sa présence est confirmée dans le Massif central, le Jura et les Alpes,. Elle est également présente en Asie du nord.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vaccinium_microcarpum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaccinium_microcarpum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Menaces et conservation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est en préoccupation mineure en France mais est menacée dans plusieurs régions françaises (elle est notamment classée en danger critique d'extinction (CR) en Bourgogne. Les menaces pesant sur l'espèce sont, comme pour la plupart des espèces, la dégradation de ses milieux par eutrophisation ou assèchement (drainage...).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vaccinium_microcarpum</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaccinium_microcarpum</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Oxycoccus microcarpus Turcz. ex Rupr., 1845
 Oxycoccus palustris subsp. microcarpus (Turcz. ex Rupr.) Nyman, 1879
 Oxycoccus quadripetalus subsp. microcarpus P.Fourn., 1937
 Oxycoccus quadripetalus subsp. microcarpus (Turcz. ex Rupr.) Schinz &amp; R.Keller, 1923
 Vaccinium oxycoccos subsp. microcarpum (Turcz. ex Rupr.) A.Blytt, 1905
-Vaccinium oxycoccos subsp. microcarpum (Turcz. ex Rupr.) Kitam., 1972[4]</t>
+Vaccinium oxycoccos subsp. microcarpum (Turcz. ex Rupr.) Kitam., 1972</t>
         </is>
       </c>
     </row>
